--- a/Taxonomy.xlsx
+++ b/Taxonomy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejnic\Documents\BONWRAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A6BBBC5-94E2-4CC3-82FB-B6F641888D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80035D9B-08B1-489A-A491-E1682DFEE05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{3E355D48-BB61-4F01-BC1D-E408685F1652}"/>
   </bookViews>
@@ -38,24 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="222">
   <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Common Name</t>
-  </si>
-  <si>
-    <t>Family</t>
-  </si>
-  <si>
-    <t>Genus</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>SSP</t>
-  </si>
-  <si>
     <t>Pipevine Swallowtail</t>
   </si>
   <si>
@@ -702,6 +684,24 @@
   </si>
   <si>
     <t xml:space="preserve"> - (likely Hesperia or Polites in Indiana)</t>
+  </si>
+  <si>
+    <t>species_id</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>genus</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>sub_species</t>
   </si>
 </sst>
 </file>
@@ -1076,29 +1076,32 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F78"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1106,19 +1109,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1126,19 +1129,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1146,19 +1149,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1166,19 +1169,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1186,19 +1189,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1206,19 +1209,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1226,19 +1229,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1246,19 +1249,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1266,19 +1269,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1286,19 +1289,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1306,19 +1309,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1326,19 +1329,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1346,19 +1349,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1366,19 +1369,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1386,19 +1389,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1406,19 +1409,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1426,19 +1429,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1446,19 +1449,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1466,19 +1469,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1486,19 +1489,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1506,19 +1509,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1526,19 +1529,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1546,19 +1549,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1566,19 +1569,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1586,19 +1589,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E26" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1606,19 +1609,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1626,19 +1629,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1646,19 +1649,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F29" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1666,19 +1669,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1686,19 +1689,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F31" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1706,19 +1709,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F32" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1726,19 +1729,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F33" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1746,19 +1749,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E34" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1766,19 +1769,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E35" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1786,19 +1789,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E36" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F36" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1806,19 +1809,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E37" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F37" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1826,19 +1829,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E38" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F38" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1846,19 +1849,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E39" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F39" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1866,19 +1869,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D40" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F40" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1886,19 +1889,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D41" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E41" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F41" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1906,19 +1909,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D42" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E42" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F42" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1926,19 +1929,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D43" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E43" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F43" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1946,19 +1949,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D44" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E44" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F44" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1966,19 +1969,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D45" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F45" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1986,19 +1989,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C46" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D46" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E46" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F46" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2006,19 +2009,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D47" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E47" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F47" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2026,19 +2029,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D48" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E48" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F48" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2046,19 +2049,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C49" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D49" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E49" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F49" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2066,19 +2069,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C50" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D50" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E50" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F50" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2086,19 +2089,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C51" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D51" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E51" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F51" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2106,19 +2109,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C52" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D52" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E52" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F52" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2126,19 +2129,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C53" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D53" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E53" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F53" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2146,19 +2149,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C54" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D54" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E54" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F54" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2166,19 +2169,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C55" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D55" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E55" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F55" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2186,19 +2189,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C56" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D56" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E56" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F56" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2206,19 +2209,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C57" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D57" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E57" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F57" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2226,19 +2229,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C58" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D58" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E58" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F58" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2246,19 +2249,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C59" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D59" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E59" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F59" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2266,19 +2269,19 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C60" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D60" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E60" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F60" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2286,19 +2289,19 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D61" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E61" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F61" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2306,19 +2309,19 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C62" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D62" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E62" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F62" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2326,19 +2329,19 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C63" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D63" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E63" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F63" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2346,19 +2349,19 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C64" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D64" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E64" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F64" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2366,19 +2369,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C65" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D65" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E65" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F65" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2386,19 +2389,19 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C66" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D66" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E66" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F66" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2406,19 +2409,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C67" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D67" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E67" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F67" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2426,19 +2429,19 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C68" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D68" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E68" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F68" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2446,19 +2449,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C69" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D69" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E69" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F69" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2466,19 +2469,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C70" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D70" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E70" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F70" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2486,19 +2489,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C71" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D71" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E71" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F71" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2506,19 +2509,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C72" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D72" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E72" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F72" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2526,19 +2529,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C73" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D73" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E73" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F73" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2546,19 +2549,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C74" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D74" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E74" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F74" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2566,19 +2569,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C75" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D75" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E75" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F75" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2586,19 +2589,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C76" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D76" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E76" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F76" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2606,19 +2609,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C77" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D77" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E77" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F77" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2626,19 +2629,19 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C78" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D78" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E78" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F78" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/Taxonomy.xlsx
+++ b/Taxonomy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejnic\Documents\BONWRAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejnic.DESKTOP-L48NN8O\Documents\BONWRAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80035D9B-08B1-489A-A491-E1682DFEE05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB6BA8E-63B5-4D71-9CC7-57F6A4329CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{3E355D48-BB61-4F01-BC1D-E408685F1652}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="223">
   <si>
     <t>Pipevine Swallowtail</t>
   </si>
@@ -702,6 +702,9 @@
   </si>
   <si>
     <t>sub_species</t>
+  </si>
+  <si>
+    <t>id_effort</t>
   </si>
 </sst>
 </file>
@@ -1073,1574 +1076,1810 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223376FB-6C4B-4F21-BF94-61F7CAD790BC}">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>216</v>
       </c>
       <c r="B1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" t="s">
         <v>217</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>218</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>219</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>220</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
       <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
       <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
       <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
       <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
       <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
       <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
       <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="F9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>26</v>
       </c>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>28</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>29</v>
       </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>31</v>
       </c>
-      <c r="F12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>33</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>34</v>
       </c>
-      <c r="F13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>28</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>38</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>39</v>
       </c>
-      <c r="F15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>40</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>41</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>42</v>
       </c>
-      <c r="F16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>43</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>44</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>45</v>
       </c>
-      <c r="F17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>46</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>47</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>48</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>49</v>
       </c>
-      <c r="F18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
         <v>50</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>47</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>51</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>52</v>
       </c>
-      <c r="F19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>53</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>47</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>51</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>54</v>
       </c>
-      <c r="F20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
         <v>55</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>47</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>51</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>56</v>
       </c>
-      <c r="F21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
         <v>57</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>47</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>58</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>59</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
         <v>61</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>47</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>62</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>63</v>
       </c>
-      <c r="F23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>64</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>47</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>65</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>66</v>
       </c>
-      <c r="F24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
         <v>67</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>47</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>68</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>69</v>
       </c>
-      <c r="F25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
         <v>70</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>47</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>71</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>72</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
         <v>74</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>75</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>76</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>77</v>
       </c>
-      <c r="F27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
         <v>78</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>75</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>79</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>80</v>
       </c>
-      <c r="F28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
         <v>81</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>75</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>82</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>83</v>
       </c>
-      <c r="F29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
         <v>84</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>75</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>85</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>86</v>
       </c>
-      <c r="F30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
         <v>87</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>75</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>88</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>89</v>
       </c>
-      <c r="F31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
         <v>90</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>75</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>91</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>92</v>
       </c>
-      <c r="F32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
         <v>93</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>75</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>94</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>95</v>
       </c>
-      <c r="F33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
         <v>96</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>75</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>94</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>97</v>
       </c>
-      <c r="F34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
         <v>98</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>75</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>94</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>18</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
         <v>100</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>75</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>101</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>102</v>
       </c>
-      <c r="F36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
         <v>103</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>75</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>104</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>105</v>
       </c>
-      <c r="F37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
         <v>106</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>75</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>104</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>107</v>
       </c>
-      <c r="F38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
         <v>108</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>75</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>104</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>109</v>
       </c>
-      <c r="F39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
         <v>110</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>75</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>111</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>112</v>
       </c>
-      <c r="F40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
         <v>113</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>75</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>114</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>115</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
         <v>117</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>75</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>114</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>118</v>
       </c>
-      <c r="F42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
         <v>119</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>75</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>120</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>121</v>
       </c>
-      <c r="F43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
         <v>122</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>75</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>123</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>124</v>
       </c>
-      <c r="F44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
         <v>125</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>75</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>123</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>126</v>
       </c>
-      <c r="F45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
         <v>127</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>75</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>128</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>129</v>
       </c>
-      <c r="F46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
         <v>130</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>75</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>131</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>132</v>
       </c>
-      <c r="F47" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
         <v>133</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>75</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>134</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>135</v>
       </c>
-      <c r="F48" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
         <v>136</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>75</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>137</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>138</v>
       </c>
-      <c r="F49" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
         <v>139</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>75</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>140</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>141</v>
       </c>
-      <c r="F50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
         <v>142</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>75</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>143</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>144</v>
       </c>
-      <c r="F51" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
         <v>145</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>146</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>147</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>148</v>
       </c>
-      <c r="F52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
         <v>149</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>146</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>150</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>151</v>
       </c>
-      <c r="F53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
         <v>152</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>146</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>150</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>151</v>
       </c>
-      <c r="F54" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
         <v>153</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>146</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>150</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>154</v>
       </c>
-      <c r="F55" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
         <v>155</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>146</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>156</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>157</v>
       </c>
-      <c r="F56" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
         <v>158</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>146</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>159</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>160</v>
       </c>
-      <c r="F57" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
         <v>161</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>146</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>159</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>162</v>
       </c>
-      <c r="F58" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
         <v>163</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>146</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>159</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>164</v>
       </c>
-      <c r="F59" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
         <v>165</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>146</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>159</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>166</v>
       </c>
-      <c r="F60" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
         <v>167</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>146</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>168</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>169</v>
       </c>
-      <c r="F61" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
         <v>170</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>146</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>171</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>172</v>
       </c>
-      <c r="F62" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
         <v>173</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>146</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>174</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>175</v>
       </c>
-      <c r="F63" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
         <v>176</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>146</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>177</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>178</v>
       </c>
-      <c r="F64" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
         <v>179</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>146</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>180</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>181</v>
       </c>
-      <c r="F65" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
         <v>182</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>146</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>183</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>184</v>
       </c>
-      <c r="F66" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
         <v>185</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>146</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>183</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>186</v>
       </c>
-      <c r="F67" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
         <v>187</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>146</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>183</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>188</v>
       </c>
-      <c r="F68" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
         <v>189</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>146</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>190</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>191</v>
       </c>
-      <c r="F69" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
         <v>192</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>146</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>193</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>194</v>
       </c>
-      <c r="F70" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
         <v>195</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>146</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>196</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>197</v>
       </c>
-      <c r="F71" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
         <v>198</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>146</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>199</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>200</v>
       </c>
-      <c r="F72" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
         <v>201</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>146</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>202</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>203</v>
       </c>
-      <c r="F73" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
         <v>204</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>146</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>202</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>205</v>
       </c>
-      <c r="F74" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
         <v>206</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>146</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>207</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>208</v>
       </c>
-      <c r="F75" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
         <v>209</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>146</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>207</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>210</v>
       </c>
-      <c r="F76" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
         <v>211</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>146</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>212</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>213</v>
       </c>
-      <c r="F77" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
         <v>214</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>146</v>
-      </c>
-      <c r="D78" t="s">
-        <v>18</v>
       </c>
       <c r="E78" t="s">
         <v>18</v>
       </c>
       <c r="F78" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" t="s">
         <v>215</v>
       </c>
     </row>
